--- a/przypadki_testowe/most/A.xlsx
+++ b/przypadki_testowe/most/A.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:40">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -421,22 +421,94 @@
       <c r="P1" s="1">
         <v>15</v>
       </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -454,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -466,33 +538,105 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:40">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -510,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -521,22 +665,94 @@
       <c r="P3">
         <v>0</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,39 +764,111 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:40">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -592,45 +880,117 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:40">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -642,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -657,22 +1017,94 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>1</v>
       </c>
@@ -698,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -707,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -716,27 +1148,99 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -745,34 +1249,106 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>1</v>
       </c>
@@ -783,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -792,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -810,19 +1386,91 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>0</v>
       </c>
@@ -830,34 +1478,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -869,10 +1517,82 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>0</v>
       </c>
@@ -898,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -921,19 +1641,91 @@
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:40">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -942,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -951,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -966,13 +1758,85 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>0</v>
       </c>
@@ -980,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -998,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1013,45 +1877,117 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:40">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1063,16 +1999,88 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:40">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1080,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1095,22 +2103,22 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1121,10 +2129,82 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:40">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1133,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1154,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1169,10 +2249,82 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:40">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1180,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1192,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1207,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1216,9 +2368,3009 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
         <v>0</v>
       </c>
     </row>
